--- a/biology/Botanique/Hylocereus/Hylocereus.xlsx
+++ b/biology/Botanique/Hylocereus/Hylocereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylocereus (du grec ὕλη - hulê, « bois, forêt, arbre » et et du nom de genre [Cereus], qui signifie « cierge ») est un genre de cactus semi- ou hémiépiphyte, originaire des Caraïbes, d'Amérique centrale et du nord de l'Amérique du Sud[1]. Il comprend 18 espèces à ce jour[1]. L’espèce la plus connue Hylocereus undatus donne le fruit nommé pitahaya.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylocereus (du grec ὕλη - hulê, « bois, forêt, arbre » et et du nom de genre [Cereus], qui signifie « cierge ») est un genre de cactus semi- ou hémiépiphyte, originaire des Caraïbes, d'Amérique centrale et du nord de l'Amérique du Sud. Il comprend 18 espèces à ce jour. L’espèce la plus connue Hylocereus undatus donne le fruit nommé pitahaya.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Wilmattea Britton &amp; Rose a été "fusionné" avec le genre Hylocereus. De plus, certains pensent aujourd'hui que le genre Hylocereus devrait à son tour être fusionné avec le genre Selenicereus.
-Espèces
-Hylocereus calcaratus (Web.) Britt. &amp; Rose. 1902. Costa Rica
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Wilmattea Britton &amp; Rose a été "fusionné" avec le genre Hylocereus. De plus, certains pensent aujourd'hui que le genre Hylocereus devrait à son tour être fusionné avec le genre Selenicereus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hylocereus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hylocereus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hylocereus calcaratus (Web.) Britt. &amp; Rose. 1902. Costa Rica
 Hylocereus costaricensis (Web.) Britt. &amp; Rose. 1909. Costa Rica, Nicaragua
 Hylocereus escuintlensis Kimn. 1984. Guatemala
 Hylocereus extensis (S.-D.) Britt. &amp; Rose. 1828. Trinité
